--- a/db/db-challenge2/データベース定義書テンプレート.xlsx
+++ b/db/db-challenge2/データベース定義書テンプレート.xlsx
@@ -3,17 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23025"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="363" documentId="11_8E513BE869550975F20FED1A71AE06380525DFC9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BFEDFCAB-E992-40D1-BC58-F33D64E108D4}"/>
+  <xr:revisionPtr revIDLastSave="375" documentId="11_8E513BE869550975F20FED1A71AE06380525DFC9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D539AEDF-6552-4136-B2E6-A3856A8C9960}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="1" r:id="rId1"/>
     <sheet name="テンプレート" sheetId="2" r:id="rId2"/>
     <sheet name="記入例" sheetId="3" r:id="rId3"/>
     <sheet name="user_data" sheetId="4" r:id="rId4"/>
-    <sheet name="chat_join" sheetId="5" r:id="rId5"/>
-    <sheet name="chatroom" sheetId="6" r:id="rId6"/>
+    <sheet name="chatroom" sheetId="6" r:id="rId5"/>
+    <sheet name="chat_join" sheetId="5" r:id="rId6"/>
     <sheet name="post" sheetId="7" r:id="rId7"/>
     <sheet name="task" sheetId="8" r:id="rId8"/>
   </sheets>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="137">
   <si>
     <t>改定履歴</t>
   </si>
@@ -709,34 +709,13 @@
     <t>update_at</t>
   </si>
   <si>
-    <t>チャットルームの参加に関する情報を保持するテーブル</t>
-  </si>
-  <si>
-    <t>チャットルームid</t>
-  </si>
-  <si>
-    <t>chatroom_id</t>
-  </si>
-  <si>
-    <t>FK</t>
-  </si>
-  <si>
-    <t>参加者id</t>
-  </si>
-  <si>
-    <t>part_id</t>
-  </si>
-  <si>
-    <t>参加日時</t>
-  </si>
-  <si>
-    <t>part_time</t>
-  </si>
-  <si>
     <t>チャット関連機能に関する情報を保持するテーブル</t>
   </si>
   <si>
     <t>チャットルームID</t>
+  </si>
+  <si>
+    <t>chatroom_id</t>
   </si>
   <si>
     <t>auto_increment</t>
@@ -778,6 +757,9 @@
     <t>creator_id</t>
   </si>
   <si>
+    <t>FK</t>
+  </si>
+  <si>
     <t>更新者ID</t>
   </si>
   <si>
@@ -785,6 +767,24 @@
   </si>
   <si>
     <t>create_at</t>
+  </si>
+  <si>
+    <t>チャットルームの参加に関する情報を保持するテーブル</t>
+  </si>
+  <si>
+    <t>チャットルームid</t>
+  </si>
+  <si>
+    <t>参加者id</t>
+  </si>
+  <si>
+    <t>part_id</t>
+  </si>
+  <si>
+    <t>参加日時</t>
+  </si>
+  <si>
+    <t>part_time</t>
   </si>
   <si>
     <t>チャットの投稿に関する情報を保持するテーブル</t>
@@ -844,13 +844,13 @@
     <t>完了期限</t>
   </si>
   <si>
-    <t>complete_limit</t>
+    <t>deadline</t>
   </si>
   <si>
     <t>完了フラグ</t>
   </si>
   <si>
-    <t>complete_flg</t>
+    <t>close_flg</t>
   </si>
   <si>
     <t>1:完了</t>
@@ -999,7 +999,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1049,19 +1049,20 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1294,9 +1295,9 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -1361,7 +1362,7 @@
         <v>43955</v>
       </c>
       <c r="B3" s="7"/>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="25" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="7" t="s">
@@ -1391,7 +1392,7 @@
       <c r="Z3" s="3"/>
     </row>
     <row r="4" spans="1:26" ht="12.75">
-      <c r="A4" s="30">
+      <c r="A4" s="24">
         <v>44011</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -1427,7 +1428,7 @@
       <c r="Z4" s="3"/>
     </row>
     <row r="5" spans="1:26" ht="12.75">
-      <c r="A5" s="30">
+      <c r="A5" s="24">
         <v>44011</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -1463,7 +1464,7 @@
       <c r="Z5" s="3"/>
     </row>
     <row r="6" spans="1:26" ht="12.75">
-      <c r="A6" s="30">
+      <c r="A6" s="24">
         <v>44011</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -1499,7 +1500,7 @@
       <c r="Z6" s="3"/>
     </row>
     <row r="7" spans="1:26" ht="12.75">
-      <c r="A7" s="30">
+      <c r="A7" s="24">
         <v>44011</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -1535,7 +1536,7 @@
       <c r="Z7" s="3"/>
     </row>
     <row r="8" spans="1:26" ht="12.75">
-      <c r="A8" s="30">
+      <c r="A8" s="24">
         <v>44011</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -30221,13 +30222,13 @@
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
       <c r="D1" s="29"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
@@ -30236,13 +30237,13 @@
       <c r="B2" s="29"/>
       <c r="C2" s="29"/>
       <c r="D2" s="29"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
@@ -30251,16 +30252,16 @@
       <c r="B3" s="29"/>
       <c r="C3" s="29"/>
       <c r="D3" s="29"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
     </row>
     <row r="4" spans="1:11" ht="12.75">
-      <c r="A4" s="22"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="2" t="s">
         <v>20</v>
       </c>
@@ -30293,7 +30294,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="22"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B16" si="0">ROW()-4</f>
         <v>1</v>
@@ -30309,7 +30310,7 @@
       <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:11" ht="12.75">
-      <c r="A6" s="22"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -30325,7 +30326,7 @@
       <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:11" ht="12.75">
-      <c r="A7" s="22"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -30341,7 +30342,7 @@
       <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:11" ht="12.75">
-      <c r="A8" s="22"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -30357,7 +30358,7 @@
       <c r="K8" s="20"/>
     </row>
     <row r="9" spans="1:11" ht="12.75">
-      <c r="A9" s="22"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -30373,7 +30374,7 @@
       <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11" ht="12.75">
-      <c r="A10" s="22"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -30389,7 +30390,7 @@
       <c r="K10" s="15"/>
     </row>
     <row r="11" spans="1:11" ht="12.75">
-      <c r="A11" s="22"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -30405,7 +30406,7 @@
       <c r="K11" s="15"/>
     </row>
     <row r="12" spans="1:11" ht="12.75">
-      <c r="A12" s="22"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -30421,7 +30422,7 @@
       <c r="K12" s="15"/>
     </row>
     <row r="13" spans="1:11" ht="12.75">
-      <c r="A13" s="22"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -30437,7 +30438,7 @@
       <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:11" ht="12.75">
-      <c r="A14" s="22"/>
+      <c r="A14" s="27"/>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -30453,7 +30454,7 @@
       <c r="K14" s="20"/>
     </row>
     <row r="15" spans="1:11" ht="12.75">
-      <c r="A15" s="22"/>
+      <c r="A15" s="27"/>
       <c r="B15" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -30469,7 +30470,7 @@
       <c r="K15" s="20"/>
     </row>
     <row r="16" spans="1:11" ht="12.75">
-      <c r="A16" s="22"/>
+      <c r="A16" s="27"/>
       <c r="B16" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -30521,61 +30522,61 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="22"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="2" t="s">
         <v>20</v>
       </c>
@@ -30606,11 +30607,11 @@
       <c r="K4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="22"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B12" si="0">ROW()-4</f>
         <v>1</v>
@@ -30638,11 +30639,11 @@
         <v>37</v>
       </c>
       <c r="K5" s="20"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="23"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="28"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="22"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -30666,11 +30667,11 @@
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="23"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="28"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="22"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -30692,11 +30693,11 @@
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
       <c r="K7" s="20"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="22"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -30724,11 +30725,11 @@
       <c r="K8" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="22"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -30750,11 +30751,11 @@
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
       <c r="K9" s="20"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="22"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -30778,11 +30779,11 @@
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
       <c r="K10" s="15"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="22"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -30804,11 +30805,11 @@
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
       <c r="K11" s="15"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="22"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -30832,8 +30833,8 @@
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
       <c r="K12" s="15"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -30884,16 +30885,30 @@
       </c>
       <c r="C1" s="29"/>
       <c r="D1" s="29"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
@@ -30902,8 +30917,16 @@
       <c r="B3" s="29"/>
       <c r="C3" s="29"/>
       <c r="D3" s="29"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
     </row>
     <row r="4" spans="1:11" ht="12.75">
+      <c r="A4" s="27"/>
       <c r="B4" s="2" t="s">
         <v>20</v>
       </c>
@@ -30936,6 +30959,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A5" s="27"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B14" si="0">ROW()-4</f>
         <v>1</v>
@@ -30965,6 +30989,7 @@
       <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A6" s="27"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -30990,6 +31015,7 @@
       <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A7" s="27"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -31015,6 +31041,7 @@
       <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A8" s="27"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -31040,6 +31067,7 @@
       <c r="K8" s="20"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A9" s="27"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -31063,6 +31091,7 @@
       <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A10" s="27"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -31086,6 +31115,7 @@
       <c r="K10" s="15"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A11" s="27"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -31109,6 +31139,7 @@
       <c r="K11" s="15"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A12" s="27"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -31138,6 +31169,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A13" s="27"/>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -31161,6 +31193,7 @@
       <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A14" s="27"/>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -31195,185 +31228,13 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0A1F322-342A-4353-8E17-44D584FB6BDF}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:K7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="14.42578125" style="22"/>
-    <col min="2" max="2" width="3.140625" style="22" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" style="22" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="22" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="22"/>
-    <col min="6" max="6" width="5.28515625" style="22" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" style="22" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" style="22" customWidth="1"/>
-    <col min="9" max="9" width="5" style="22" customWidth="1"/>
-    <col min="10" max="16384" width="14.42578125" style="22"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="12.75">
-      <c r="A1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-    </row>
-    <row r="2" spans="1:11" ht="12.75">
-      <c r="A2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="12.75">
-      <c r="A3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-    </row>
-    <row r="4" spans="1:11" ht="12.75">
-      <c r="B4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B5" s="5">
-        <f t="shared" ref="B5:B7" si="0">ROW()-4</f>
-        <v>1</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="F5" s="16">
-        <v>11</v>
-      </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="I5" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="J5" s="13"/>
-      <c r="K5" s="20"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B6" s="5">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="F6" s="16">
-        <v>11</v>
-      </c>
-      <c r="G6" s="20"/>
-      <c r="H6" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="I6" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B7" s="5">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B3:D3"/>
-  </mergeCells>
-  <phoneticPr fontId="6"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDD42A7E-2FFD-4EFA-96A7-A31DBA3C0280}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
@@ -31403,14 +31264,30 @@
       </c>
       <c r="C1" s="29"/>
       <c r="D1" s="29"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>95</v>
-      </c>
+      <c r="B2" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
@@ -31419,8 +31296,16 @@
       <c r="B3" s="29"/>
       <c r="C3" s="29"/>
       <c r="D3" s="29"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
     </row>
     <row r="4" spans="1:11" ht="12.75">
+      <c r="A4" s="27"/>
       <c r="B4" s="2" t="s">
         <v>20</v>
       </c>
@@ -31453,12 +31338,13 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A5" s="27"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B14" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>89</v>
@@ -31477,20 +31363,21 @@
         <v>64</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A6" s="27"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>67</v>
@@ -31507,15 +31394,16 @@
       <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A7" s="27"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>67</v>
@@ -31530,15 +31418,16 @@
       <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A8" s="27"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>80</v>
@@ -31555,18 +31444,19 @@
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
       <c r="K8" s="20" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A9" s="27"/>
       <c r="B9" s="5">
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>80</v>
@@ -31583,10 +31473,11 @@
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
       <c r="K9" s="20" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A10" s="27"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -31616,15 +31507,16 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A11" s="27"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>62</v>
@@ -31637,21 +31529,22 @@
         <v>63</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="J11" s="20"/>
       <c r="K11" s="15"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A12" s="27"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>62</v>
@@ -31664,12 +31557,13 @@
         <v>63</v>
       </c>
       <c r="I12" s="20" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="J12" s="20"/>
       <c r="K12" s="15"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A13" s="27"/>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -31678,7 +31572,7 @@
         <v>82</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>84</v>
@@ -31693,6 +31587,7 @@
       <c r="K13" s="15"/>
     </row>
     <row r="14" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A14" s="27"/>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -31714,6 +31609,205 @@
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
       <c r="K14" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B3:D3"/>
+  </mergeCells>
+  <phoneticPr fontId="6"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0A1F322-342A-4353-8E17-44D584FB6BDF}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:K7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="22"/>
+    <col min="2" max="2" width="3.140625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="22" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="22" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="22"/>
+    <col min="6" max="6" width="5.28515625" style="22" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" style="22" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" style="22" customWidth="1"/>
+    <col min="9" max="9" width="5" style="22" customWidth="1"/>
+    <col min="10" max="16384" width="14.42578125" style="22"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="12.75">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+    </row>
+    <row r="2" spans="1:11" ht="12.75">
+      <c r="A2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+    </row>
+    <row r="3" spans="1:11" ht="12.75">
+      <c r="A3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+    </row>
+    <row r="4" spans="1:11" ht="12.75">
+      <c r="A4" s="27"/>
+      <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A5" s="27"/>
+      <c r="B5" s="5">
+        <f t="shared" ref="B5:B7" si="0">ROW()-4</f>
+        <v>1</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="16">
+        <v>11</v>
+      </c>
+      <c r="G5" s="20"/>
+      <c r="H5" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="J5" s="13"/>
+      <c r="K5" s="20"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A6" s="27"/>
+      <c r="B6" s="5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="16">
+        <v>11</v>
+      </c>
+      <c r="G6" s="20"/>
+      <c r="H6" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A7" s="27"/>
+      <c r="B7" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" s="16"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -31735,7 +31829,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -31763,14 +31857,30 @@
       </c>
       <c r="C1" s="29"/>
       <c r="D1" s="29"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="27" t="s">
         <v>113</v>
       </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
@@ -31779,8 +31889,16 @@
       <c r="B3" s="29"/>
       <c r="C3" s="29"/>
       <c r="D3" s="29"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
     </row>
     <row r="4" spans="1:11" ht="12.75">
+      <c r="A4" s="27"/>
       <c r="B4" s="2" t="s">
         <v>20</v>
       </c>
@@ -31813,6 +31931,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A5" s="27"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B13" si="0">ROW()-4</f>
         <v>1</v>
@@ -31837,11 +31956,12 @@
         <v>64</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1">
+      <c r="A6" s="27"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -31867,6 +31987,7 @@
       <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1">
+      <c r="A7" s="27"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -31890,12 +32011,13 @@
       <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1">
+      <c r="A8" s="27"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>89</v>
@@ -31911,12 +32033,13 @@
         <v>63</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="J8" s="20"/>
       <c r="K8" s="20"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1">
+      <c r="A9" s="27"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -31946,6 +32069,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1">
+      <c r="A10" s="27"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -31967,12 +32091,13 @@
         <v>63</v>
       </c>
       <c r="I10" s="20" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="J10" s="20"/>
       <c r="K10" s="15"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1">
+      <c r="A11" s="27"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -31981,7 +32106,7 @@
         <v>122</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>62</v>
@@ -31994,12 +32119,13 @@
         <v>63</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="J11" s="20"/>
       <c r="K11" s="15"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1">
+      <c r="A12" s="27"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -32010,7 +32136,9 @@
       <c r="D12" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="E12" s="13"/>
+      <c r="E12" s="13" t="s">
+        <v>84</v>
+      </c>
       <c r="F12" s="16"/>
       <c r="G12" s="15"/>
       <c r="H12" s="18" t="s">
@@ -32021,6 +32149,7 @@
       <c r="K12" s="15"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A13" s="27"/>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -32031,7 +32160,9 @@
       <c r="D13" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="E13" s="15"/>
+      <c r="E13" s="15" t="s">
+        <v>84</v>
+      </c>
       <c r="F13" s="17"/>
       <c r="G13" s="20"/>
       <c r="H13" s="18" t="s">
@@ -32059,9 +32190,9 @@
   </sheetPr>
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -32082,17 +32213,35 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="27" t="s">
         <v>16</v>
       </c>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="27" t="s">
         <v>124</v>
       </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
@@ -32101,8 +32250,16 @@
       <c r="B3" s="29"/>
       <c r="C3" s="29"/>
       <c r="D3" s="29"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
     </row>
     <row r="4" spans="1:11" ht="12.75">
+      <c r="A4" s="27"/>
       <c r="B4" s="2" t="s">
         <v>20</v>
       </c>
@@ -32135,6 +32292,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A5" s="27"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B15" si="0">ROW()-4</f>
         <v>1</v>
@@ -32159,11 +32317,12 @@
         <v>64</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1">
+      <c r="A6" s="27"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -32189,6 +32348,7 @@
       <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1">
+      <c r="A7" s="27"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -32210,18 +32370,19 @@
         <v>63</v>
       </c>
       <c r="I7" s="20" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="J7" s="20"/>
       <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1">
+      <c r="A8" s="27"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>89</v>
@@ -32237,12 +32398,13 @@
         <v>63</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="J8" s="20"/>
       <c r="K8" s="20"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1">
+      <c r="A9" s="27"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -32264,6 +32426,7 @@
       <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1">
+      <c r="A10" s="27"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -32293,6 +32456,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1">
+      <c r="A11" s="27"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -32322,6 +32486,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1">
+      <c r="A12" s="27"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -32330,7 +32495,7 @@
         <v>136</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>62</v>
@@ -32343,12 +32508,13 @@
         <v>63</v>
       </c>
       <c r="I12" s="20" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="J12" s="20"/>
       <c r="K12" s="15"/>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1">
+      <c r="A13" s="27"/>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -32357,7 +32523,7 @@
         <v>122</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>62</v>
@@ -32370,12 +32536,13 @@
         <v>63</v>
       </c>
       <c r="I13" s="20" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="J13" s="20"/>
       <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1">
+      <c r="A14" s="27"/>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -32399,6 +32566,7 @@
       <c r="K14" s="20"/>
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1">
+      <c r="A15" s="27"/>
       <c r="B15" s="5">
         <f t="shared" si="0"/>
         <v>11</v>

--- a/db/db-challenge2/データベース定義書テンプレート.xlsx
+++ b/db/db-challenge2/データベース定義書テンプレート.xlsx
@@ -3,19 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23025"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="375" documentId="11_8E513BE869550975F20FED1A71AE06380525DFC9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D539AEDF-6552-4136-B2E6-A3856A8C9960}"/>
+  <xr:revisionPtr revIDLastSave="410" documentId="11_8E513BE869550975F20FED1A71AE06380525DFC9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{89978E66-5DBE-4810-A1CE-608C71E6317F}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="1" r:id="rId1"/>
     <sheet name="テンプレート" sheetId="2" r:id="rId2"/>
     <sheet name="記入例" sheetId="3" r:id="rId3"/>
-    <sheet name="user_data" sheetId="4" r:id="rId4"/>
-    <sheet name="chatroom" sheetId="6" r:id="rId5"/>
-    <sheet name="chat_join" sheetId="5" r:id="rId6"/>
-    <sheet name="post" sheetId="7" r:id="rId7"/>
-    <sheet name="task" sheetId="8" r:id="rId8"/>
+    <sheet name="users_data" sheetId="4" r:id="rId4"/>
+    <sheet name="chatrooms_join" sheetId="5" r:id="rId5"/>
+    <sheet name="chatrooms" sheetId="6" r:id="rId6"/>
+    <sheet name="posts" sheetId="7" r:id="rId7"/>
+    <sheet name="tasks" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="141">
   <si>
     <t>改定履歴</t>
   </si>
@@ -625,6 +625,9 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
+    <t>users_data</t>
+  </si>
+  <si>
     <t>ユーザー関連機能に関する情報を保持するテーブル</t>
   </si>
   <si>
@@ -685,7 +688,7 @@
     <t>削除フラグ</t>
   </si>
   <si>
-    <t>delete_flg</t>
+    <t>is_deleted</t>
   </si>
   <si>
     <t>tinyint</t>
@@ -706,16 +709,40 @@
     <t>更新日時</t>
   </si>
   <si>
-    <t>update_at</t>
+    <t>updated_at</t>
+  </si>
+  <si>
+    <t>chatrooms_join</t>
+  </si>
+  <si>
+    <t>チャットルームの参加に関する情報を保持するテーブル</t>
+  </si>
+  <si>
+    <t>チャットルームid</t>
+  </si>
+  <si>
+    <t>chatroom_id</t>
+  </si>
+  <si>
+    <t>参加者id</t>
+  </si>
+  <si>
+    <t>join_user_id</t>
+  </si>
+  <si>
+    <t>参加日時</t>
+  </si>
+  <si>
+    <t>joined_on</t>
+  </si>
+  <si>
+    <t>chatrooms</t>
   </si>
   <si>
     <t>チャット関連機能に関する情報を保持するテーブル</t>
   </si>
   <si>
     <t>チャットルームID</t>
-  </si>
-  <si>
-    <t>chatroom_id</t>
   </si>
   <si>
     <t>auto_increment</t>
@@ -736,7 +763,7 @@
     <t>ファイル送信許可フラグ</t>
   </si>
   <si>
-    <t>file_permit_flg</t>
+    <t>is_permitted_sending_file</t>
   </si>
   <si>
     <t>1:ファイル送信許可</t>
@@ -745,7 +772,7 @@
     <t>ダイレクトチャットフラグ</t>
   </si>
   <si>
-    <t>dc_flg</t>
+    <t>is_directchat</t>
   </si>
   <si>
     <t>1:ダイレクトチャット</t>
@@ -766,25 +793,7 @@
     <t>changer_id</t>
   </si>
   <si>
-    <t>create_at</t>
-  </si>
-  <si>
-    <t>チャットルームの参加に関する情報を保持するテーブル</t>
-  </si>
-  <si>
-    <t>チャットルームid</t>
-  </si>
-  <si>
-    <t>参加者id</t>
-  </si>
-  <si>
-    <t>part_id</t>
-  </si>
-  <si>
-    <t>参加日時</t>
-  </si>
-  <si>
-    <t>part_time</t>
+    <t>posts</t>
   </si>
   <si>
     <t>チャットの投稿に関する情報を保持するテーブル</t>
@@ -820,6 +829,9 @@
     <t>投稿日時</t>
   </si>
   <si>
+    <t>tasks</t>
+  </si>
+  <si>
     <t>タスク関連機能に関する情報を保持するテーブル</t>
   </si>
   <si>
@@ -844,13 +856,13 @@
     <t>完了期限</t>
   </si>
   <si>
-    <t>deadline</t>
+    <t>closed_on</t>
   </si>
   <si>
     <t>完了フラグ</t>
   </si>
   <si>
-    <t>close_flg</t>
+    <t>is_closed</t>
   </si>
   <si>
     <t>1:完了</t>
@@ -30857,7 +30869,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -30881,7 +30893,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C1" s="29"/>
       <c r="D1" s="29"/>
@@ -30898,7 +30910,7 @@
         <v>18</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C2" s="26"/>
       <c r="D2" s="26"/>
@@ -30965,23 +30977,23 @@
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F5" s="16">
         <v>11</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J5" s="13" t="s">
         <v>37</v>
@@ -30995,20 +31007,20 @@
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F6" s="16">
         <v>100</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
@@ -31021,20 +31033,20 @@
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="13" t="s">
         <v>68</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>67</v>
       </c>
       <c r="F7" s="16">
         <v>100</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
@@ -31047,20 +31059,20 @@
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F8" s="16">
         <v>100</v>
       </c>
       <c r="G8" s="20"/>
       <c r="H8" s="18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
@@ -31073,13 +31085,13 @@
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F9" s="16">
         <v>1000</v>
@@ -31097,13 +31109,13 @@
         <v>6</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F10" s="16">
         <v>13</v>
@@ -31121,13 +31133,13 @@
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F11" s="16">
         <v>13</v>
@@ -31145,13 +31157,13 @@
         <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F12" s="16">
         <v>1</v>
@@ -31160,12 +31172,12 @@
         <v>0</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
       <c r="K12" s="15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.75" customHeight="1">
@@ -31175,18 +31187,18 @@
         <v>9</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F13" s="17"/>
       <c r="G13" s="20"/>
       <c r="H13" s="18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I13" s="20"/>
       <c r="J13" s="20"/>
@@ -31199,18 +31211,18 @@
         <v>10</v>
       </c>
       <c r="C14" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="15" t="s">
         <v>85</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>84</v>
       </c>
       <c r="F14" s="16"/>
       <c r="G14" s="20"/>
       <c r="H14" s="18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
@@ -31228,6 +31240,205 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0A1F322-342A-4353-8E17-44D584FB6BDF}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:K7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="22"/>
+    <col min="2" max="2" width="3.140625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="22" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="22" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="22"/>
+    <col min="6" max="6" width="5.28515625" style="22" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" style="22" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" style="22" customWidth="1"/>
+    <col min="9" max="9" width="5" style="22" customWidth="1"/>
+    <col min="10" max="16384" width="14.42578125" style="22"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="12.75">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+    </row>
+    <row r="2" spans="1:11" ht="12.75">
+      <c r="A2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+    </row>
+    <row r="3" spans="1:11" ht="12.75">
+      <c r="A3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+    </row>
+    <row r="4" spans="1:11" ht="12.75">
+      <c r="A4" s="27"/>
+      <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A5" s="27"/>
+      <c r="B5" s="5">
+        <f t="shared" ref="B5:B7" si="0">ROW()-4</f>
+        <v>1</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="16">
+        <v>11</v>
+      </c>
+      <c r="G5" s="20"/>
+      <c r="H5" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="J5" s="13"/>
+      <c r="K5" s="20"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A6" s="27"/>
+      <c r="B6" s="5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="16">
+        <v>11</v>
+      </c>
+      <c r="G6" s="20"/>
+      <c r="H6" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A7" s="27"/>
+      <c r="B7" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" s="16"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B3:D3"/>
+  </mergeCells>
+  <phoneticPr fontId="6"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDD42A7E-2FFD-4EFA-96A7-A31DBA3C0280}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -31236,7 +31447,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -31260,7 +31471,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="C1" s="29"/>
       <c r="D1" s="29"/>
@@ -31277,7 +31488,7 @@
         <v>18</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="27"/>
@@ -31344,26 +31555,26 @@
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F5" s="16">
         <v>11</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="K5" s="20"/>
     </row>
@@ -31374,20 +31585,20 @@
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F6" s="16">
         <v>100</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
@@ -31400,13 +31611,13 @@
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F7" s="16">
         <v>1000</v>
@@ -31424,13 +31635,13 @@
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F8" s="16">
         <v>1</v>
@@ -31439,12 +31650,12 @@
         <v>1</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
       <c r="K8" s="20" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1">
@@ -31453,13 +31664,13 @@
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F9" s="16">
         <v>1</v>
@@ -31468,12 +31679,12 @@
         <v>0</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
       <c r="K9" s="20" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1">
@@ -31483,13 +31694,13 @@
         <v>6</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F10" s="16">
         <v>1</v>
@@ -31498,12 +31709,12 @@
         <v>0</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
       <c r="K10" s="20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1">
@@ -31513,23 +31724,23 @@
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F11" s="16">
         <v>11</v>
       </c>
       <c r="G11" s="20"/>
       <c r="H11" s="18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="J11" s="20"/>
       <c r="K11" s="15"/>
@@ -31541,23 +31752,23 @@
         <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F12" s="16">
         <v>11</v>
       </c>
       <c r="G12" s="20"/>
       <c r="H12" s="18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I12" s="20" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="J12" s="20"/>
       <c r="K12" s="15"/>
@@ -31569,18 +31780,18 @@
         <v>9</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="15"/>
       <c r="H13" s="18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I13" s="20"/>
       <c r="J13" s="20"/>
@@ -31593,221 +31804,22 @@
         <v>10</v>
       </c>
       <c r="C14" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="15" t="s">
         <v>85</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>84</v>
       </c>
       <c r="F14" s="17"/>
       <c r="G14" s="20"/>
       <c r="H14" s="18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
       <c r="K14" s="20"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B3:D3"/>
-  </mergeCells>
-  <phoneticPr fontId="6"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0A1F322-342A-4353-8E17-44D584FB6BDF}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:K7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="14.42578125" style="22"/>
-    <col min="2" max="2" width="3.140625" style="22" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" style="22" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="22" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="22"/>
-    <col min="6" max="6" width="5.28515625" style="22" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" style="22" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" style="22" customWidth="1"/>
-    <col min="9" max="9" width="5" style="22" customWidth="1"/>
-    <col min="10" max="16384" width="14.42578125" style="22"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="12.75">
-      <c r="A1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-    </row>
-    <row r="2" spans="1:11" ht="12.75">
-      <c r="A2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-    </row>
-    <row r="3" spans="1:11" ht="12.75">
-      <c r="A3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-    </row>
-    <row r="4" spans="1:11" ht="12.75">
-      <c r="A4" s="27"/>
-      <c r="B4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="27"/>
-      <c r="B5" s="5">
-        <f t="shared" ref="B5:B7" si="0">ROW()-4</f>
-        <v>1</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="F5" s="16">
-        <v>11</v>
-      </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="I5" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="J5" s="13"/>
-      <c r="K5" s="20"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A6" s="27"/>
-      <c r="B6" s="5">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="F6" s="16">
-        <v>11</v>
-      </c>
-      <c r="G6" s="20"/>
-      <c r="H6" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="I6" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A7" s="27"/>
-      <c r="B7" s="5">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -31829,7 +31841,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -31853,7 +31865,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="C1" s="29"/>
       <c r="D1" s="29"/>
@@ -31870,7 +31882,7 @@
         <v>18</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="27"/>
@@ -31937,26 +31949,26 @@
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F5" s="16">
         <v>11</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="K5" s="20"/>
     </row>
@@ -31967,20 +31979,20 @@
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F6" s="16">
         <v>1000</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
@@ -31993,13 +32005,13 @@
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F7" s="16">
         <v>100</v>
@@ -32017,23 +32029,23 @@
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F8" s="16">
         <v>11</v>
       </c>
       <c r="G8" s="20"/>
       <c r="H8" s="18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="J8" s="20"/>
       <c r="K8" s="20"/>
@@ -32045,13 +32057,13 @@
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F9" s="16">
         <v>1</v>
@@ -32060,12 +32072,12 @@
         <v>0</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
       <c r="K9" s="20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1">
@@ -32075,23 +32087,23 @@
         <v>6</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F10" s="16">
         <v>11</v>
       </c>
       <c r="G10" s="20"/>
       <c r="H10" s="18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I10" s="20" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="J10" s="20"/>
       <c r="K10" s="15"/>
@@ -32103,23 +32115,23 @@
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F11" s="16">
         <v>11</v>
       </c>
       <c r="G11" s="20"/>
       <c r="H11" s="18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="J11" s="20"/>
       <c r="K11" s="15"/>
@@ -32131,18 +32143,18 @@
         <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="15"/>
       <c r="H12" s="18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
@@ -32155,18 +32167,18 @@
         <v>9</v>
       </c>
       <c r="C13" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" s="15" t="s">
         <v>85</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>84</v>
       </c>
       <c r="F13" s="17"/>
       <c r="G13" s="20"/>
       <c r="H13" s="18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I13" s="20"/>
       <c r="J13" s="20"/>
@@ -32192,7 +32204,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -32214,7 +32226,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>16</v>
+        <v>127</v>
       </c>
       <c r="C1" s="27"/>
       <c r="D1" s="27"/>
@@ -32231,7 +32243,7 @@
         <v>18</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="27"/>
@@ -32298,26 +32310,26 @@
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F5" s="16">
         <v>11</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="K5" s="20"/>
     </row>
@@ -32328,20 +32340,20 @@
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F6" s="16">
         <v>1000</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
@@ -32354,23 +32366,23 @@
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F7" s="16">
         <v>11</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I7" s="20" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="J7" s="20"/>
       <c r="K7" s="20"/>
@@ -32382,23 +32394,23 @@
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F8" s="16">
         <v>11</v>
       </c>
       <c r="G8" s="20"/>
       <c r="H8" s="18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="J8" s="20"/>
       <c r="K8" s="20"/>
@@ -32410,13 +32422,13 @@
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="20"/>
@@ -32432,13 +32444,13 @@
         <v>6</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F10" s="16">
         <v>1</v>
@@ -32447,12 +32459,12 @@
         <v>0</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
       <c r="K10" s="15" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1">
@@ -32462,13 +32474,13 @@
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F11" s="16">
         <v>1</v>
@@ -32477,12 +32489,12 @@
         <v>0</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
       <c r="K11" s="15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1">
@@ -32492,23 +32504,23 @@
         <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F12" s="16">
         <v>11</v>
       </c>
       <c r="G12" s="15"/>
       <c r="H12" s="18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I12" s="20" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="J12" s="20"/>
       <c r="K12" s="15"/>
@@ -32520,23 +32532,23 @@
         <v>9</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F13" s="16">
         <v>11</v>
       </c>
       <c r="G13" s="20"/>
       <c r="H13" s="18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I13" s="20" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="J13" s="20"/>
       <c r="K13" s="20"/>
@@ -32548,18 +32560,18 @@
         <v>10</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F14" s="16"/>
       <c r="G14" s="20"/>
       <c r="H14" s="18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
@@ -32572,18 +32584,18 @@
         <v>11</v>
       </c>
       <c r="C15" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" s="15" t="s">
         <v>85</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>84</v>
       </c>
       <c r="F15" s="17"/>
       <c r="G15" s="20"/>
       <c r="H15" s="18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="20"/>
